--- a/data/trans_bre/P16B10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,78%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 1,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 1,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 0,0</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,93; 4,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,97; 4,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -774,22 +774,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,33%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,18; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,18; 0,0</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,11%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 1,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 1,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B10-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Estudios-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,67</t>
+          <t>-5,89; 1,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,0</t>
+          <t>-3,93; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 1,71</t>
+          <t>-6,06; 1,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,0</t>
+          <t>-3,93; 0,0</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 4,14</t>
+          <t>-17,53; 4,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 4,31</t>
+          <t>-18,02; 4,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 0,0</t>
+          <t>-32,25; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 0,0</t>
+          <t>-32,25; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,22</t>
+          <t>-5,64; 1,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,0</t>
+          <t>-3,83; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 1,23</t>
+          <t>-5,67; 1,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,0</t>
+          <t>-3,83; 0,0</t>
         </is>
       </c>
     </row>
